--- a/chart2/qa/extras/data/xlsx/chart_pie2007.xlsx
+++ b/chart2/qa/extras/data/xlsx/chart_pie2007.xlsx
@@ -180,218 +180,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Pie Chart with user defined colors</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Pie sales data</c:v>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="5ABA10"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FE110E"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="CA5C05"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Apple</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cherry</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Pecan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Pie Chart with segment rotation</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Pie sales data</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Apple</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cherry</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Pecan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="90"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -419,66 +207,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
